--- a/data/CSV MAAB/Kulang sa details NOV 1-15 2017.xlsx
+++ b/data/CSV MAAB/Kulang sa details NOV 1-15 2017.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CSV MAAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\RedCrossMAAB\data\CSV MAAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69475CDD-39FA-4094-8F22-AA54CCAE2280}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>CLASSIC</t>
   </si>
@@ -168,12 +169,159 @@
   </si>
   <si>
     <t>#99 OUTLOOK DRIVE BAGUIO CITY</t>
+  </si>
+  <si>
+    <t>NO ID NUMBER</t>
+  </si>
+  <si>
+    <t>SEBIO</t>
+  </si>
+  <si>
+    <t>ROSENY</t>
+  </si>
+  <si>
+    <t>NAABUS</t>
+  </si>
+  <si>
+    <t>QUEZON NATIONAL HIGH SCHOL</t>
+  </si>
+  <si>
+    <t>NO BDAY</t>
+  </si>
+  <si>
+    <t>PB0758952</t>
+  </si>
+  <si>
+    <t>PREMIER BRONZE</t>
+  </si>
+  <si>
+    <t>LAGASCA</t>
+  </si>
+  <si>
+    <t>ARMAN</t>
+  </si>
+  <si>
+    <t>CALUB</t>
+  </si>
+  <si>
+    <t>AGOO, LA UNION</t>
+  </si>
+  <si>
+    <t>111/07/2017</t>
+  </si>
+  <si>
+    <t>PB0758956</t>
+  </si>
+  <si>
+    <t>BALASO</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>PB0758957</t>
+  </si>
+  <si>
+    <t>LORENA</t>
+  </si>
+  <si>
+    <t>PB0758959</t>
+  </si>
+  <si>
+    <t>JUVEN</t>
+  </si>
+  <si>
+    <t>PENGYASEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIUS  </t>
+  </si>
+  <si>
+    <t>AROY</t>
+  </si>
+  <si>
+    <t>BAGUIO CITY SPED CENTER</t>
+  </si>
+  <si>
+    <t>ERROR ENTERING</t>
+  </si>
+  <si>
+    <t>PELI¥O</t>
+  </si>
+  <si>
+    <t>JAHNELLE</t>
+  </si>
+  <si>
+    <t>L.</t>
+  </si>
+  <si>
+    <t>GIBRALTAR ELEMENTARY SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CA¥ERO</t>
+  </si>
+  <si>
+    <t>JULIUS RAYN</t>
+  </si>
+  <si>
+    <t>P.</t>
+  </si>
+  <si>
+    <t>#66 PUROK 3 IRISAN</t>
+  </si>
+  <si>
+    <t>DUPLICATE ENTRY</t>
+  </si>
+  <si>
+    <t>MATUNAN</t>
+  </si>
+  <si>
+    <t>DARWIN DAVE</t>
+  </si>
+  <si>
+    <t>KILING</t>
+  </si>
+  <si>
+    <t>KENNETH</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t>#188 P6 GABRIELA SILANG</t>
+  </si>
+  <si>
+    <t>KAPAWEN</t>
+  </si>
+  <si>
+    <t>KHYZER HANS</t>
+  </si>
+  <si>
+    <t>DE VERA</t>
+  </si>
+  <si>
+    <t>JOHN PAUL I</t>
+  </si>
+  <si>
+    <t>D.</t>
+  </si>
+  <si>
+    <t>#017 MIDDLE ROCK QUARRY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,10 +359,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,22 +677,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:N13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2385966</v>
       </c>
@@ -581,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2385966</v>
       </c>
@@ -619,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2385966</v>
       </c>
@@ -654,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2385966</v>
       </c>
@@ -692,7 +844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2385966</v>
       </c>
@@ -730,7 +882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5149723</v>
       </c>
@@ -765,7 +917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5149724</v>
       </c>
@@ -800,7 +952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5149695</v>
       </c>
@@ -835,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5149696</v>
       </c>
@@ -870,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5149697</v>
       </c>
@@ -902,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>5149698</v>
       </c>
@@ -934,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5149335</v>
       </c>
@@ -967,6 +1119,476 @@
       </c>
       <c r="L13" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2385984</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16">
+        <v>9473536190</v>
+      </c>
+      <c r="J16" s="1">
+        <v>38241</v>
+      </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="1">
+        <v>43049</v>
+      </c>
+      <c r="N16" s="1">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2385905</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19">
+        <v>9557708964</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="1">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1">
+        <v>43048</v>
+      </c>
+      <c r="N20" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1">
+        <v>43048</v>
+      </c>
+      <c r="N21" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1">
+        <v>43048</v>
+      </c>
+      <c r="N22" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2386064</v>
+      </c>
+      <c r="B23">
+        <v>5149674</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>9070338365</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>43053</v>
+      </c>
+      <c r="N23" s="1">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2385906</v>
+      </c>
+      <c r="B26">
+        <v>5149339</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="3">
+        <v>40034</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="3">
+        <v>43046</v>
+      </c>
+      <c r="N26" s="3">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2385940</v>
+      </c>
+      <c r="B27">
+        <v>5149395</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27">
+        <v>9212243788</v>
+      </c>
+      <c r="J27" s="3">
+        <v>36708</v>
+      </c>
+      <c r="K27">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="3">
+        <v>43047</v>
+      </c>
+      <c r="N27" s="3">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2385949</v>
+      </c>
+      <c r="B30">
+        <v>5149309</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="3">
+        <v>40598</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="3">
+        <v>43048</v>
+      </c>
+      <c r="N30" s="3">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2385951</v>
+      </c>
+      <c r="B31">
+        <v>5149309</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31">
+        <v>9268133251</v>
+      </c>
+      <c r="J31" s="3">
+        <v>36248</v>
+      </c>
+      <c r="K31">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="3">
+        <v>43048</v>
+      </c>
+      <c r="N31" s="3">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>5149303</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="3">
+        <v>36337</v>
+      </c>
+      <c r="K32">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="3">
+        <v>43047</v>
+      </c>
+      <c r="N32" s="3">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2385944</v>
+      </c>
+      <c r="B33">
+        <v>5149303</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="3">
+        <v>36412</v>
+      </c>
+      <c r="K33">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="3">
+        <v>43048</v>
+      </c>
+      <c r="N33" s="3">
+        <v>43413</v>
       </c>
     </row>
   </sheetData>
